--- a/IPL/Royal Challengers Bangalore/Nicholas Pooran †.xlsx
+++ b/IPL/Royal Challengers Bangalore/Nicholas Pooran †.xlsx
@@ -445,28 +445,31 @@
         <v>Nicholas Pooran †</v>
       </c>
       <c r="C2" t="str">
+        <v>62</v>
+      </c>
+      <c r="D2" t="str">
         <v>19</v>
       </c>
-      <c r="D2" t="str">
-        <v>14</v>
-      </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2" t="str">
-        <v>135.71</v>
+        <v>326.31</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J2" t="str">
-        <v>May 08 2022</v>
+        <v>April 10 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Nicholas Pooran †</v>
       </c>
       <c r="C3" t="str">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="str">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>135.71</v>
+        <v>128.57</v>
       </c>
       <c r="H3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Lucknow</v>
       </c>
       <c r="J3" t="str">
-        <v>May 08 2022</v>
+        <v>May 01 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 67 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
